--- a/data/trans_dic/P57_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P57_R-Habitat-trans_dic.xlsx
@@ -612,7 +612,7 @@
         <v>0.1891988729080784</v>
       </c>
       <c r="D4" s="5" t="n">
-        <v>0.1585780803531729</v>
+        <v>0.1585780803531728</v>
       </c>
       <c r="E4" s="5" t="n">
         <v>0.2407026606517167</v>
@@ -624,7 +624,7 @@
         <v>0.2149103495863731</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>0.1764114902456749</v>
+        <v>0.1764114902456748</v>
       </c>
     </row>
     <row r="5">
@@ -635,22 +635,22 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.1614863787395383</v>
+        <v>0.1577723776147348</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.1357929608379684</v>
+        <v>0.1328941789537588</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.207441989565026</v>
+        <v>0.2107346208779493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.1712831338936886</v>
+        <v>0.1715810673185315</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.1935326358725248</v>
+        <v>0.1907044410865709</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.1607033023680242</v>
+        <v>0.1596787997301707</v>
       </c>
     </row>
     <row r="6">
@@ -661,22 +661,22 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.2194226972493467</v>
+        <v>0.2214304581067184</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.1897336102153628</v>
+        <v>0.1853479466905023</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.2739349132992122</v>
+        <v>0.2797024924428044</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.215856298870905</v>
+        <v>0.2147241075068037</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.2396308924895523</v>
+        <v>0.2363826851827157</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.1948368195933748</v>
+        <v>0.1940616981185329</v>
       </c>
     </row>
     <row r="7">
@@ -706,7 +706,7 @@
         <v>0.2196005837021666</v>
       </c>
       <c r="H7" s="5" t="n">
-        <v>0.1473258424659114</v>
+        <v>0.1473258424659113</v>
       </c>
     </row>
     <row r="8">
@@ -717,22 +717,22 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.176799064107892</v>
+        <v>0.174933588082423</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.1033733472894782</v>
+        <v>0.1025984623675773</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.2085296663153792</v>
+        <v>0.2087586027093277</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.1545143532396674</v>
+        <v>0.1553075202118497</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.2006831138911387</v>
+        <v>0.2017250057805947</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.134507875361169</v>
+        <v>0.1348470892994014</v>
       </c>
     </row>
     <row r="9">
@@ -743,22 +743,22 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2256907222318525</v>
+        <v>0.2264700575181454</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1418647887864488</v>
+        <v>0.1437755099265692</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.2650006927368713</v>
+        <v>0.2633918732482383</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.1933177877509087</v>
+        <v>0.1939129513841941</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.23882290734842</v>
+        <v>0.2381956528431086</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.1621164424103581</v>
+        <v>0.1632260269623459</v>
       </c>
     </row>
     <row r="10">
@@ -799,22 +799,22 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.1449680096291256</v>
+        <v>0.1471104063238838</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.07176932205278695</v>
+        <v>0.07142890927771221</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.1641535818173376</v>
+        <v>0.1678085366811671</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.08478657881642496</v>
+        <v>0.08485227639086133</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.1651715777352403</v>
+        <v>0.163046243550039</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.08235470695891144</v>
+        <v>0.08259038264705881</v>
       </c>
     </row>
     <row r="12">
@@ -825,22 +825,22 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.205000205326675</v>
+        <v>0.2023685089516221</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.1146384650465184</v>
+        <v>0.1160278710957328</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2255938779716201</v>
+        <v>0.2240997711269526</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.1243599102421709</v>
+        <v>0.1228816404731701</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.2075789296656864</v>
+        <v>0.2049720887132219</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.111983457907897</v>
+        <v>0.1141460066179163</v>
       </c>
     </row>
     <row r="13">
@@ -864,13 +864,13 @@
         <v>0.2572410922487573</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>0.2104471856617603</v>
+        <v>0.2104471856617602</v>
       </c>
       <c r="G13" s="5" t="n">
         <v>0.2182115052628263</v>
       </c>
       <c r="H13" s="5" t="n">
-        <v>0.1897377862707995</v>
+        <v>0.1897377862707994</v>
       </c>
     </row>
     <row r="14">
@@ -881,22 +881,22 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.1493984636703272</v>
+        <v>0.1525427129420994</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.1454030855456077</v>
+        <v>0.1439547610385995</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.2292498595441549</v>
+        <v>0.2319540515842324</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.1897284992930703</v>
+        <v>0.1864462055387865</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.1982689645162821</v>
+        <v>0.1993198167825431</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.1752035826922041</v>
+        <v>0.174377364345242</v>
       </c>
     </row>
     <row r="15">
@@ -907,22 +907,22 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.1993327090088126</v>
+        <v>0.1995189260378193</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.192713872224613</v>
+        <v>0.1897474543201023</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.2836825867976191</v>
+        <v>0.2875637761982607</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.2320712186418562</v>
+        <v>0.2296422778572898</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.2366709223103196</v>
+        <v>0.2370963141826462</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.2058261521090424</v>
+        <v>0.2049215066766432</v>
       </c>
     </row>
     <row r="16">
@@ -963,22 +963,22 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.1707073336214035</v>
+        <v>0.1729822099273633</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.1231141641721879</v>
+        <v>0.1234753428602749</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.219710047699913</v>
+        <v>0.2207318029974446</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.1630702137096631</v>
+        <v>0.1630313437769726</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2004534506469918</v>
+        <v>0.2001346877096224</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.1466292581199869</v>
+        <v>0.1463926198690921</v>
       </c>
     </row>
     <row r="18">
@@ -989,22 +989,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.1983752476282493</v>
+        <v>0.1994897947502547</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.1452323958679781</v>
+        <v>0.1456134641083238</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.250206332246964</v>
+        <v>0.2493665405068524</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.1842156193730836</v>
+        <v>0.1839276127373952</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.2201378742600735</v>
+        <v>0.2205299945812986</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.1616845678838601</v>
+        <v>0.1618231883948152</v>
       </c>
     </row>
     <row r="19">
@@ -1191,22 +1191,22 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>108114</v>
+        <v>105628</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>92790</v>
+        <v>90809</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>138446</v>
+        <v>140643</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>124496</v>
+        <v>124712</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>258731</v>
+        <v>254950</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>226617</v>
+        <v>225172</v>
       </c>
     </row>
     <row r="7">
@@ -1217,22 +1217,22 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>146902</v>
+        <v>148246</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>129648</v>
+        <v>126651</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>182823</v>
+        <v>186672</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>156894</v>
+        <v>156071</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>320359</v>
+        <v>316017</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>274751</v>
+        <v>273658</v>
       </c>
     </row>
     <row r="8">
@@ -1299,22 +1299,22 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>180570</v>
+        <v>178665</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>108277</v>
+        <v>107465</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>217275</v>
+        <v>217513</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>164256</v>
+        <v>165099</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>414062</v>
+        <v>416212</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>283877</v>
+        <v>284593</v>
       </c>
     </row>
     <row r="11">
@@ -1325,22 +1325,22 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>230504</v>
+        <v>231300</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>148594</v>
+        <v>150596</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>276114</v>
+        <v>274437</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>205506</v>
+        <v>206139</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>492755</v>
+        <v>491461</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>342144</v>
+        <v>344486</v>
       </c>
     </row>
     <row r="12">
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>109659</v>
+        <v>111280</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>57636</v>
+        <v>57363</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>127926</v>
+        <v>130774</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>68513</v>
+        <v>68566</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>253661</v>
+        <v>250397</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>132685</v>
+        <v>133065</v>
       </c>
     </row>
     <row r="15">
@@ -1433,22 +1433,22 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>155070</v>
+        <v>153079</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>92063</v>
+        <v>93179</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>175806</v>
+        <v>174642</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>100491</v>
+        <v>99296</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>318788</v>
+        <v>314785</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>180421</v>
+        <v>183905</v>
       </c>
     </row>
     <row r="16">
@@ -1515,22 +1515,22 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>139459</v>
+        <v>142395</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>143653</v>
+        <v>142222</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>238298</v>
+        <v>241109</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>211502</v>
+        <v>207843</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>391173</v>
+        <v>393246</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>368405</v>
+        <v>366668</v>
       </c>
     </row>
     <row r="19">
@@ -1541,22 +1541,22 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>186072</v>
+        <v>186246</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>190395</v>
+        <v>187464</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>294879</v>
+        <v>298913</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>258704</v>
+        <v>255996</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>466938</v>
+        <v>467777</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>432796</v>
+        <v>430894</v>
       </c>
     </row>
     <row r="20">
@@ -1623,22 +1623,22 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>577116</v>
+        <v>584807</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>433583</v>
+        <v>434855</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>775160</v>
+        <v>778765</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>605434</v>
+        <v>605289</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>1384900</v>
+        <v>1382698</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>1060791</v>
+        <v>1059079</v>
       </c>
     </row>
     <row r="23">
@@ -1649,22 +1649,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>670654</v>
+        <v>674422</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>511478</v>
+        <v>512820</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>882754</v>
+        <v>879791</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>683941</v>
+        <v>682871</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1520897</v>
+        <v>1523606</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1169709</v>
+        <v>1170712</v>
       </c>
     </row>
     <row r="24">
